--- a/worksheet/IndividualWorkSheet(0521).xlsx
+++ b/worksheet/IndividualWorkSheet(0521).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sec\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A60D2-8091-444A-BFC0-5EC37FBA352D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B5F67-FDB4-41A4-9BF2-F2FA998ED0D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="32925" windowHeight="19185" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="경예지" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
   <si>
     <t>할일</t>
   </si>
@@ -231,22 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI와 Operation 연결  / data  파일 생성 및 불러오기 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공고 조회 화면 구현 /공지 데이터 / 전반적인 UI 개선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회 기능과 조회 UI 연결 /  공지 데이터 저장 + 불러오기 기능 구현 / 공지관련 UI 개선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Login 개선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,6 +256,34 @@
   </si>
   <si>
     <t>txt파일이 아닌 객체를 주고받도록 파일입출력 개선.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고 데이터 저장 + 불러오기 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적인 UI 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고 조회 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지 데이터 저장 + 불러오기 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지 관련 UI 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회 기능과 조회 UI 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data  파일 생성 및 불러오기 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,21 +820,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.36328125" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,7 +874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -882,7 +894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -902,12 +914,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2">
         <v>43606</v>
@@ -916,31 +928,47 @@
         <v>43606</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="49.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:6" ht="49.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5">
+        <v>43606</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43606</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="5">
+        <v>43606</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43606</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -948,7 +976,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -956,7 +984,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -964,7 +992,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -972,7 +1000,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -980,7 +1008,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -988,7 +1016,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -996,7 +1024,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1019,17 +1047,17 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="A5" sqref="A5:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1089,7 +1117,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1107,12 +1135,12 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5">
         <v>43606</v>
@@ -1121,29 +1149,47 @@
         <v>43606</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="76.8" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5">
+        <v>43606</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43606</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="5">
+        <v>43606</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43606</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1151,7 +1197,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1159,7 +1205,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1167,7 +1213,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1175,7 +1221,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1183,7 +1229,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1191,7 +1237,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1199,7 +1245,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1221,18 +1267,18 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A6" sqref="A6:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1272,7 +1318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1292,7 +1338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1310,7 +1356,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1330,12 +1376,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5">
         <v>43606</v>
@@ -1344,29 +1390,47 @@
         <v>43606</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="5">
+        <v>43606</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43606</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="5">
+        <v>43606</v>
+      </c>
+      <c r="D8" s="5">
+        <v>43606</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1374,7 +1438,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1382,7 +1446,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1390,7 +1454,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1398,7 +1462,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1406,7 +1470,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1414,7 +1478,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1435,19 +1499,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -1485,7 +1549,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1503,7 +1567,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1521,7 +1585,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1541,7 +1605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -1559,7 +1623,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1577,7 +1641,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1597,49 +1661,49 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="5">
+        <v>43606</v>
+      </c>
+      <c r="D9" s="5">
+        <v>43606</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="5">
+        <v>43606</v>
+      </c>
+      <c r="D10" s="5">
+        <v>43606</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="38.4" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="5">
-        <v>43606</v>
-      </c>
-      <c r="D9" s="5">
-        <v>43606</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="5">
-        <v>43606</v>
-      </c>
-      <c r="D10" s="5">
-        <v>43606</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="C11" s="5">
         <v>43606</v>
       </c>
@@ -1647,11 +1711,11 @@
         <v>43606</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5"/>
@@ -1659,7 +1723,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1667,7 +1731,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1675,7 +1739,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
